--- a/aBossFile/防洪堤三期石材清单_1121pm.xlsx
+++ b/aBossFile/防洪堤三期石材清单_1121pm.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/biaolu/Documents/BossFIle/aBossFile/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{B1D53204-52DA-7848-B2E5-C350697072AA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B39AB-84F5-B14D-AA3E-E56CEB479DF6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="460" windowWidth="32760" windowHeight="20540"/>
+    <workbookView xWindow="140" yWindow="460" windowWidth="32760" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="石材" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="_1_、">石材!$E$32</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">石材!$2:$3</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -220,15 +220,6 @@
     <t>青砖</t>
   </si>
   <si>
-    <t>300*50*50</t>
-  </si>
-  <si>
-    <t>240*115*53</t>
-  </si>
-  <si>
-    <t>200*100*50</t>
-  </si>
-  <si>
     <t>12厚仿古青色劈开砖</t>
   </si>
   <si>
@@ -265,22 +256,10 @@
     <t>80厚深灰色透水砖</t>
   </si>
   <si>
-    <t>80厚咖啡色透水砖</t>
-  </si>
-  <si>
-    <t>80厚绿色井字植草砖</t>
-  </si>
-  <si>
     <t>195*250</t>
   </si>
   <si>
-    <t>60厚透水砖</t>
-  </si>
-  <si>
     <t>50厚黄色盲道砖</t>
-  </si>
-  <si>
-    <t>60厚彩色砼盲道砖</t>
   </si>
   <si>
     <t>块</t>
@@ -316,15 +295,43 @@
     <t>价格+（10%）</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>240*40*50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>230*115*50</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>200*100*40</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50厚咖啡色透水砖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>70厚绿色井字植草砖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50厚透水砖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>50厚彩色砼盲道砖</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="188" formatCode="0.00_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -343,6 +350,7 @@
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -352,17 +360,20 @@
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -373,21 +384,36 @@
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFFC000"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -452,7 +478,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -471,7 +497,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -489,7 +515,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -513,34 +539,40 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -885,11 +917,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="115" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="26" customHeight="1"/>
@@ -909,15 +941,15 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="26" customHeight="1">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
     </row>
     <row r="3" spans="1:7" ht="26" customHeight="1">
       <c r="A3" s="2" t="s">
@@ -933,10 +965,10 @@
         <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>6</v>
@@ -953,7 +985,7 @@
         <v>8</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="E4" s="19">
         <v>1380</v>
@@ -974,7 +1006,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E5" s="5">
         <v>98</v>
@@ -985,17 +1017,17 @@
       <c r="G5" s="7"/>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1">
-      <c r="A6" s="22">
+      <c r="A6" s="21">
         <v>3</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="26" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E6" s="5">
         <v>69</v>
@@ -1006,13 +1038,13 @@
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1">
-      <c r="A7" s="22"/>
-      <c r="B7" s="20"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="26"/>
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E7" s="5">
         <v>69</v>
@@ -1023,13 +1055,13 @@
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1">
-      <c r="A8" s="22"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="26"/>
       <c r="C8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E8" s="5">
         <v>85</v>
@@ -1040,13 +1072,13 @@
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1">
-      <c r="A9" s="22"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="26"/>
       <c r="C9" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E9" s="5">
         <v>85</v>
@@ -1057,17 +1089,17 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1">
-      <c r="A10" s="28">
+      <c r="A10" s="22">
         <v>4</v>
       </c>
-      <c r="B10" s="24" t="s">
+      <c r="B10" s="27" t="s">
         <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E10" s="5">
         <v>98</v>
@@ -1078,13 +1110,13 @@
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1">
-      <c r="A11" s="29"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="23"/>
+      <c r="B11" s="28"/>
       <c r="C11" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E11" s="5">
         <v>98</v>
@@ -1095,13 +1127,13 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1">
-      <c r="A12" s="29"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="28"/>
       <c r="C12" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E12" s="5">
         <v>77</v>
@@ -1112,13 +1144,13 @@
       <c r="G12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="24" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="23"/>
+      <c r="B13" s="28"/>
       <c r="C13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E13" s="5">
         <v>98</v>
@@ -1129,13 +1161,13 @@
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1">
-      <c r="A14" s="29"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="23"/>
+      <c r="B14" s="28"/>
       <c r="C14" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E14" s="5">
         <v>77</v>
@@ -1146,13 +1178,13 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="28"/>
       <c r="C15" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5">
         <v>95</v>
@@ -1173,7 +1205,7 @@
         <v>22</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E16" s="5">
         <v>115</v>
@@ -1194,7 +1226,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E17" s="11">
         <v>160</v>
@@ -1205,17 +1237,17 @@
       <c r="G17" s="11"/>
     </row>
     <row r="18" spans="1:7" ht="24" customHeight="1">
-      <c r="A18" s="22">
+      <c r="A18" s="21">
         <v>7</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="26" t="s">
         <v>24</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E18" s="5">
         <v>295</v>
@@ -1226,13 +1258,13 @@
       <c r="G18" s="11"/>
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1">
-      <c r="A19" s="22"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="21"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E19" s="5">
         <v>295</v>
@@ -1243,17 +1275,17 @@
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1">
-      <c r="A20" s="22">
+      <c r="A20" s="21">
         <v>8</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="26" t="s">
         <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E20" s="5">
         <v>350</v>
@@ -1264,13 +1296,13 @@
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:7" ht="24" customHeight="1">
-      <c r="A21" s="22"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E21" s="5">
         <v>350</v>
@@ -1281,13 +1313,13 @@
       <c r="G21" s="11"/>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="20"/>
+      <c r="A22" s="21"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E22" s="5">
         <v>350</v>
@@ -1308,7 +1340,7 @@
         <v>20</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E23" s="5">
         <v>69</v>
@@ -1319,17 +1351,17 @@
       <c r="G23" s="11"/>
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1">
-      <c r="A24" s="22">
+      <c r="A24" s="21">
         <v>10</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>31</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E24" s="11">
         <v>44</v>
@@ -1340,13 +1372,13 @@
       <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7" ht="24" customHeight="1">
-      <c r="A25" s="22"/>
-      <c r="B25" s="22"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E25" s="11">
         <v>68</v>
@@ -1367,7 +1399,7 @@
         <v>34</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E26" s="5">
         <v>95</v>
@@ -1378,17 +1410,17 @@
       <c r="G26" s="11"/>
     </row>
     <row r="27" spans="1:7" ht="24" customHeight="1">
-      <c r="A27" s="22">
+      <c r="A27" s="21">
         <v>12</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="21" t="s">
         <v>35</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E27" s="5">
         <v>98</v>
@@ -1399,13 +1431,13 @@
       <c r="G27" s="11"/>
     </row>
     <row r="28" spans="1:7" ht="24" customHeight="1">
-      <c r="A28" s="22"/>
-      <c r="B28" s="22"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="4" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E28" s="5">
         <v>77</v>
@@ -1416,13 +1448,13 @@
       <c r="G28" s="11"/>
     </row>
     <row r="29" spans="1:7" ht="24" customHeight="1">
-      <c r="A29" s="22"/>
-      <c r="B29" s="22"/>
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="4" t="s">
         <v>19</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E29" s="5">
         <v>77</v>
@@ -1443,7 +1475,7 @@
         <v>20</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E30" s="5">
         <v>125</v>
@@ -1464,7 +1496,7 @@
         <v>22</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E31" s="5">
         <v>240</v>
@@ -1475,17 +1507,17 @@
       <c r="G31" s="11"/>
     </row>
     <row r="32" spans="1:7" ht="26" customHeight="1">
-      <c r="A32" s="26">
+      <c r="A32" s="24">
         <v>15</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="26" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E32" s="5">
         <v>198</v>
@@ -1496,13 +1528,13 @@
       <c r="G32" s="4"/>
     </row>
     <row r="33" spans="1:7" ht="26" customHeight="1">
-      <c r="A33" s="26"/>
-      <c r="B33" s="20"/>
+      <c r="A33" s="24"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E33" s="5">
         <v>198</v>
@@ -1513,13 +1545,13 @@
       <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" ht="26" customHeight="1">
-      <c r="A34" s="26"/>
-      <c r="B34" s="20"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E34" s="5">
         <v>198</v>
@@ -1530,13 +1562,13 @@
       <c r="G34" s="4"/>
     </row>
     <row r="35" spans="1:7" ht="26" customHeight="1">
-      <c r="A35" s="26"/>
-      <c r="B35" s="20"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E35" s="5">
         <v>198</v>
@@ -1547,13 +1579,13 @@
       <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="26" customHeight="1">
-      <c r="A36" s="26"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E36" s="5">
         <v>188</v>
@@ -1564,13 +1596,13 @@
       <c r="G36" s="14"/>
     </row>
     <row r="37" spans="1:7" ht="26" customHeight="1">
-      <c r="A37" s="26"/>
-      <c r="B37" s="20"/>
+      <c r="A37" s="24"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E37" s="5">
         <v>198</v>
@@ -1581,13 +1613,13 @@
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7" ht="26" customHeight="1">
-      <c r="A38" s="26"/>
-      <c r="B38" s="20"/>
+      <c r="A38" s="24"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E38" s="5">
         <v>188</v>
@@ -1598,13 +1630,13 @@
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7" ht="26" customHeight="1">
-      <c r="A39" s="26"/>
-      <c r="B39" s="20"/>
+      <c r="A39" s="24"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E39" s="5">
         <v>188</v>
@@ -1615,17 +1647,17 @@
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7" ht="26" customHeight="1">
-      <c r="A40" s="22">
+      <c r="A40" s="21">
         <v>16</v>
       </c>
-      <c r="B40" s="20" t="s">
+      <c r="B40" s="26" t="s">
         <v>43</v>
       </c>
       <c r="C40" s="8" t="s">
         <v>44</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E40" s="5">
         <v>175</v>
@@ -1636,13 +1668,13 @@
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7" ht="26" customHeight="1">
-      <c r="A41" s="22"/>
-      <c r="B41" s="20"/>
+      <c r="A41" s="21"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E41" s="5">
         <v>175</v>
@@ -1653,13 +1685,13 @@
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7" ht="26" customHeight="1">
-      <c r="A42" s="22"/>
-      <c r="B42" s="20"/>
+      <c r="A42" s="21"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="8" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E42" s="5">
         <v>195</v>
@@ -1670,13 +1702,13 @@
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7" ht="26" customHeight="1">
-      <c r="A43" s="22"/>
-      <c r="B43" s="20"/>
+      <c r="A43" s="21"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="8" t="s">
         <v>46</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E43" s="5">
         <v>195</v>
@@ -1687,13 +1719,13 @@
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7" ht="26" customHeight="1">
-      <c r="A44" s="22"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="21"/>
+      <c r="B44" s="26"/>
       <c r="C44" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E44" s="5">
         <v>195</v>
@@ -1704,17 +1736,17 @@
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7" ht="26" customHeight="1">
-      <c r="A45" s="22">
+      <c r="A45" s="21">
         <v>17</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="21" t="s">
         <v>47</v>
       </c>
       <c r="C45" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E45" s="5">
         <v>480</v>
@@ -1725,13 +1757,13 @@
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7" ht="26" customHeight="1">
-      <c r="A46" s="22"/>
-      <c r="B46" s="22"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E46" s="5">
         <v>480</v>
@@ -1752,7 +1784,7 @@
         <v>40</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E47" s="5">
         <v>215</v>
@@ -1763,17 +1795,17 @@
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7" ht="26" customHeight="1">
-      <c r="A48" s="22">
+      <c r="A48" s="21">
         <v>19</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>49</v>
       </c>
       <c r="C48" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E48" s="5">
         <v>198</v>
@@ -1784,13 +1816,13 @@
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7" ht="26" customHeight="1">
-      <c r="A49" s="22"/>
-      <c r="B49" s="22"/>
+      <c r="A49" s="21"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E49" s="5">
         <v>198</v>
@@ -1801,17 +1833,17 @@
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7" ht="26" customHeight="1">
-      <c r="A50" s="23">
+      <c r="A50" s="25">
         <v>20</v>
       </c>
-      <c r="B50" s="20" t="s">
+      <c r="B50" s="26" t="s">
         <v>50</v>
       </c>
       <c r="C50" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E50" s="5">
         <v>225</v>
@@ -1822,13 +1854,13 @@
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7" ht="26" customHeight="1">
-      <c r="A51" s="23"/>
-      <c r="B51" s="20"/>
+      <c r="A51" s="25"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E51" s="5">
         <v>225</v>
@@ -1839,13 +1871,13 @@
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7" ht="26" customHeight="1">
-      <c r="A52" s="23"/>
-      <c r="B52" s="20"/>
+      <c r="A52" s="25"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E52" s="5">
         <v>215</v>
@@ -1856,13 +1888,13 @@
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7" ht="26" customHeight="1">
-      <c r="A53" s="23"/>
-      <c r="B53" s="20"/>
+      <c r="A53" s="25"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E53" s="5">
         <v>215</v>
@@ -1883,7 +1915,7 @@
         <v>52</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E54" s="5">
         <v>295</v>
@@ -1894,17 +1926,17 @@
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7" ht="26" customHeight="1">
-      <c r="A55" s="23">
+      <c r="A55" s="25">
         <v>22</v>
       </c>
-      <c r="B55" s="20" t="s">
+      <c r="B55" s="26" t="s">
         <v>53</v>
       </c>
       <c r="C55" s="8" t="s">
         <v>54</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E55" s="5">
         <v>490</v>
@@ -1915,13 +1947,13 @@
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7" ht="26" customHeight="1">
-      <c r="A56" s="23"/>
-      <c r="B56" s="20"/>
+      <c r="A56" s="25"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E56" s="5">
         <v>490</v>
@@ -1932,17 +1964,17 @@
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7" ht="26" customHeight="1">
-      <c r="A57" s="23">
+      <c r="A57" s="25">
         <v>23</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="26" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E57" s="5">
         <v>415</v>
@@ -1953,13 +1985,13 @@
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7" ht="26" customHeight="1">
-      <c r="A58" s="23"/>
-      <c r="B58" s="20"/>
+      <c r="A58" s="25"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E58" s="5">
         <v>415</v>
@@ -1970,13 +2002,13 @@
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7" ht="26" customHeight="1">
-      <c r="A59" s="23"/>
-      <c r="B59" s="20"/>
+      <c r="A59" s="25"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="8" t="s">
         <v>42</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E59" s="5">
         <v>395</v>
@@ -1987,13 +2019,13 @@
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7" ht="26" customHeight="1">
-      <c r="A60" s="23"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="25"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E60" s="5">
         <v>380</v>
@@ -2012,7 +2044,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E61" s="11">
         <v>560</v>
@@ -2033,7 +2065,7 @@
         <v>34</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E62" s="5">
         <v>160</v>
@@ -2044,40 +2076,40 @@
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7" ht="26" customHeight="1">
-      <c r="A63" s="23">
+      <c r="A63" s="25">
         <v>26</v>
       </c>
-      <c r="B63" s="21" t="s">
+      <c r="B63" s="29" t="s">
         <v>58</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>59</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E63" s="5">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="F63" s="12">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7" ht="26" customHeight="1">
-      <c r="A64" s="23"/>
-      <c r="B64" s="21"/>
+      <c r="A64" s="25"/>
+      <c r="B64" s="29"/>
       <c r="C64" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E64" s="5">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="F64" s="12">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="G64" s="4"/>
     </row>
@@ -2092,7 +2124,7 @@
         <v>61</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E65" s="5">
         <v>198</v>
@@ -2116,17 +2148,17 @@
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7" ht="26" customHeight="1">
-      <c r="A67" s="22">
+      <c r="A67" s="21">
         <v>29</v>
       </c>
-      <c r="B67" s="20" t="s">
+      <c r="B67" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="C67" s="8" t="s">
-        <v>64</v>
+      <c r="C67" s="30" t="s">
+        <v>85</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E67" s="5">
         <v>142</v>
@@ -2137,30 +2169,30 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="26" customHeight="1">
-      <c r="A68" s="22"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="8" t="s">
-        <v>65</v>
+      <c r="A68" s="21"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E68" s="5">
-        <v>138</v>
+        <v>168</v>
       </c>
       <c r="F68" s="12">
-        <v>152</v>
+        <v>185</v>
       </c>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7" ht="26" customHeight="1">
-      <c r="A69" s="22"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="8" t="s">
-        <v>66</v>
+      <c r="A69" s="21"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="31" t="s">
+        <v>87</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E69" s="5">
         <v>138</v>
@@ -2175,13 +2207,13 @@
         <v>30</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E70" s="5">
         <v>148</v>
@@ -2196,13 +2228,13 @@
         <v>31</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C71" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E71" s="5">
         <v>95</v>
@@ -2217,13 +2249,13 @@
         <v>32</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E72" s="5">
         <v>128</v>
@@ -2238,13 +2270,13 @@
         <v>33</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C73" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E73" s="5">
         <v>398</v>
@@ -2259,13 +2291,13 @@
         <v>34</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E74" s="11">
         <v>168000</v>
@@ -2280,13 +2312,13 @@
         <v>35</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C75" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E75" s="5">
         <v>98</v>
@@ -2301,13 +2333,13 @@
         <v>36</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C76" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E76" s="5">
         <v>95</v>
@@ -2322,13 +2354,13 @@
         <v>37</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C77" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E77" s="5">
         <v>98</v>
@@ -2343,13 +2375,13 @@
         <v>38</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C78" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E78" s="5">
         <v>95</v>
@@ -2364,13 +2396,13 @@
         <v>39</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C79" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E79" s="5">
         <v>98</v>
@@ -2384,14 +2416,14 @@
       <c r="A80" s="4">
         <v>40</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>79</v>
+      <c r="B80" s="30" t="s">
+        <v>88</v>
       </c>
       <c r="C80" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E80" s="5">
         <v>98</v>
@@ -2405,14 +2437,14 @@
       <c r="A81" s="10">
         <v>41</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>80</v>
+      <c r="B81" s="30" t="s">
+        <v>89</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E81" s="5">
         <v>86</v>
@@ -2426,14 +2458,14 @@
       <c r="A82" s="4">
         <v>42</v>
       </c>
-      <c r="B82" s="8" t="s">
-        <v>82</v>
+      <c r="B82" s="30" t="s">
+        <v>90</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E82" s="5">
         <v>95</v>
@@ -2448,13 +2480,13 @@
         <v>43</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C83" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E83" s="5">
         <v>82</v>
@@ -2468,14 +2500,14 @@
       <c r="A84" s="4">
         <v>44</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>84</v>
+      <c r="B84" s="30" t="s">
+        <v>91</v>
       </c>
       <c r="C84" s="8" t="s">
         <v>40</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E84" s="5">
         <v>128</v>
@@ -2496,21 +2528,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A10:A15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A22"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A32:A39"/>
-    <mergeCell ref="A40:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A53"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A63:A64"/>
     <mergeCell ref="A67:A69"/>
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B15"/>
@@ -2527,6 +2544,21 @@
     <mergeCell ref="B48:B49"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="B55:B56"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A53"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A32:A39"/>
+    <mergeCell ref="A40:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.67" right="0.2" top="0.74" bottom="0.59" header="0.59" footer="0.55000000000000004"/>
